--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luana\Desktop\FIX - Robos\desafio-tecnico-bot-selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F1692F-AAE3-4C9D-8BE1-9E471720DF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D2B476-A59E-4CEA-AA9D-3C205D32196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-1140" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>valor moeda</t>
   </si>
@@ -31,9 +31,18 @@
     <t>nome</t>
   </si>
   <si>
+    <t>valor total</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>PEREIRA</t>
   </si>
   <si>
+    <t>MACHADO</t>
+  </si>
+  <si>
     <t>SILVA</t>
   </si>
   <si>
@@ -41,9 +50,6 @@
   </si>
   <si>
     <t>TAURINO</t>
-  </si>
-  <si>
-    <t>MACHADO</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +137,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="3" builtinId="4"/>
@@ -448,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,11 +466,10 @@
     <col min="1" max="1" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -473,11 +479,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="H1"/>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>4363.2700000000004</v>
       </c>
@@ -485,10 +494,10 @@
         <v>43444</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>15461.8</v>
       </c>
@@ -496,10 +505,10 @@
         <v>43631</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>47.47</v>
       </c>
@@ -507,10 +516,10 @@
         <v>43475</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>5876.48</v>
       </c>
@@ -518,10 +527,10 @@
         <v>43636</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>7659.02</v>
       </c>
@@ -529,11 +538,11 @@
         <v>43256</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>